--- a/p3_p4_p123_pnames_goarchive.xlsx
+++ b/p3_p4_p123_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_1</t>
+    <t>name_4</t>
   </si>
   <si>
     <t>dd'd</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_2</t>
+    <t>name_3</t>
   </si>
   <si>
     <t>fff</t>

--- a/p3_p4_p123_pnames_goarchive.xlsx
+++ b/p3_p4_p123_pnames_goarchive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_4</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>dd'd</t>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
-  </si>
-  <si>
-    <t>name_3</t>
   </si>
   <si>
     <t>fff</t>
@@ -488,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>41255</v>
@@ -503,7 +500,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>22</v>

--- a/p3_p4_p123_pnames_goarchive.xlsx
+++ b/p3_p4_p123_pnames_goarchive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_1</t>
+    <t>name_3</t>
   </si>
   <si>
     <t>dd'd</t>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
+  </si>
+  <si>
+    <t>name_5</t>
   </si>
   <si>
     <t>fff</t>
@@ -485,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>41255</v>
@@ -500,7 +503,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>22</v>

--- a/p3_p4_p123_pnames_goarchive.xlsx
+++ b/p3_p4_p123_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_3</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>dd'd</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_5</t>
+    <t>name_2</t>
   </si>
   <si>
     <t>fff</t>
